--- a/paper/benchmarking/experimental isotherms/experimental_calculated_areas_and_software_settings.xlsx
+++ b/paper/benchmarking/experimental isotherms/experimental_calculated_areas_and_software_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gianmarcoterrones/Research/MOFs/Greg_SESAMI/SESAMI_web/paper/benchmarking/experimental isotherms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036282A2-24E0-A041-9180-4E9BA152B069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E160F97-B8AB-BE4B-847C-09ADC8187BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30300" yWindow="10620" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{E941D5A1-A0F3-0B48-A4F6-A2D24C9292E4}"/>
+    <workbookView xWindow="30300" yWindow="10620" windowWidth="28800" windowHeight="16320" xr2:uid="{E941D5A1-A0F3-0B48-A4F6-A2D24C9292E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -204,9 +204,6 @@
     <t>NU-1500(Fe)</t>
   </si>
   <si>
-    <t>SIFSIX-Ni</t>
-  </si>
-  <si>
     <t>UiO-66</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>So, probe radius of 2.27A, and 2000 MC samples per atom</t>
+  </si>
+  <si>
+    <t>SIFSIX-3 (Ni)</t>
   </si>
 </sst>
 </file>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC01AB12-853D-2D46-8C97-B39D3FCBFBBF}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -767,7 +767,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="12">
         <v>1466</v>
@@ -776,13 +776,13 @@
         <v>1668.1</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="13">
         <v>1494.7</v>
@@ -809,13 +809,13 @@
         <v>1692.3</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="13">
         <v>1573.5</v>
@@ -842,13 +842,13 @@
         <v>1727.3</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>61</v>
-      </c>
       <c r="G4" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" s="13">
         <v>2438.6999999999998</v>
@@ -878,10 +878,10 @@
         <v>2228.8000000000002</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="13">
         <v>2653.5</v>
@@ -944,10 +944,10 @@
         <v>3327.1</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" s="13">
         <v>3413.1</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B8" s="12">
         <v>356</v>
@@ -977,10 +977,10 @@
         <v>355</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" s="13">
         <v>355.2</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="14">
         <v>1251.4000000000001</v>
@@ -1043,10 +1043,10 @@
         <v>1081.5999999999999</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" s="13">
         <v>1082.3</v>
@@ -1181,7 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685C9287-4B61-3F4F-A0D7-84642B1E885B}">
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1247,7 +1247,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1614,22 +1614,22 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
@@ -1639,22 +1639,22 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
@@ -1664,22 +1664,22 @@
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/paper/benchmarking/experimental isotherms/experimental_calculated_areas_and_software_settings.xlsx
+++ b/paper/benchmarking/experimental isotherms/experimental_calculated_areas_and_software_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gianmarcoterrones/Research/MOFs/Greg_SESAMI/SESAMI_web/paper/benchmarking/experimental isotherms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E160F97-B8AB-BE4B-847C-09ADC8187BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F316FC-E034-084E-814E-D8638DB6F173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30300" yWindow="10620" windowWidth="28800" windowHeight="16320" xr2:uid="{E941D5A1-A0F3-0B48-A4F6-A2D24C9292E4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="1" xr2:uid="{E941D5A1-A0F3-0B48-A4F6-A2D24C9292E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="75">
   <si>
     <t>Using the default options on https://sesami-web.org/</t>
   </si>
@@ -111,9 +111,6 @@
     <t>BETSI option set 2</t>
   </si>
   <si>
-    <t xml:space="preserve">pyGAPS </t>
-  </si>
-  <si>
     <t>BET area calculated with the function area_BET</t>
   </si>
   <si>
@@ -256,6 +253,12 @@
   </si>
   <si>
     <t>SIFSIX-3 (Ni)</t>
+  </si>
+  <si>
+    <t>Custom adsorbate</t>
+  </si>
+  <si>
+    <t>pyGAPS </t>
   </si>
 </sst>
 </file>
@@ -380,9 +383,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -721,456 +723,456 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC01AB12-853D-2D46-8C97-B39D3FCBFBBF}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1466</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1668.1</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="12">
+        <v>1494.7</v>
+      </c>
+      <c r="I2" s="10">
+        <v>1507.35</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1498.39</v>
+      </c>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B3" s="11">
+        <v>1580.2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1466.5</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1692.3</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="12">
-        <v>1466</v>
-      </c>
-      <c r="D2" s="12">
-        <v>1668.1</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="F3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1573.5</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1584.48</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1565.14</v>
+      </c>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1997.9</v>
+      </c>
+      <c r="C4" s="11">
+        <v>900</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1727.3</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="13">
-        <v>1494.7</v>
-      </c>
-      <c r="I2" s="11">
-        <v>1507.35</v>
-      </c>
-      <c r="J2" s="11">
-        <v>1498.39</v>
-      </c>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="F4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="12">
+        <v>2438.6999999999998</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1037.3800000000001</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1752.43</v>
+      </c>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2153.6999999999998</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2090.3000000000002</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2385</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2228.8000000000002</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="12">
+        <v>2653.5</v>
+      </c>
+      <c r="I5" s="10">
+        <v>2142.9699999999998</v>
+      </c>
+      <c r="J5" s="10">
+        <v>2458.88</v>
+      </c>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2893.1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2717.5</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2780.6</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2787.9</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2787.9</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2758.2</v>
+      </c>
+      <c r="H6" s="12">
+        <v>3917.1</v>
+      </c>
+      <c r="I6" s="10">
+        <v>2692.76</v>
+      </c>
+      <c r="J6" s="10">
+        <v>3068.87</v>
+      </c>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="12">
-        <v>1580.2</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1466.5</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1692.3</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="13">
-        <v>1573.5</v>
-      </c>
-      <c r="I3" s="11">
-        <v>1584.48</v>
-      </c>
-      <c r="J3" s="11">
-        <v>1565.14</v>
-      </c>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="12">
-        <v>1997.9</v>
-      </c>
-      <c r="C4" s="12">
-        <v>900</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1727.3</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="B7" s="11">
+        <v>3304.5</v>
+      </c>
+      <c r="C7" s="11">
+        <v>3409.1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2808.6</v>
+      </c>
+      <c r="E7" s="10">
+        <v>3327.1</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="13">
-        <v>2438.6999999999998</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1037.3800000000001</v>
-      </c>
-      <c r="J4" s="11">
-        <v>1752.43</v>
-      </c>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="12">
-        <v>2153.6999999999998</v>
-      </c>
-      <c r="C5" s="12">
-        <v>2090.3000000000002</v>
-      </c>
-      <c r="D5" s="12">
-        <v>2385</v>
-      </c>
-      <c r="E5" s="11">
-        <v>2228.8000000000002</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="13">
-        <v>2653.5</v>
-      </c>
-      <c r="I5" s="11">
-        <v>2142.9699999999998</v>
-      </c>
-      <c r="J5" s="11">
-        <v>2458.88</v>
-      </c>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="12">
-        <v>2893.1</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2717.5</v>
-      </c>
-      <c r="D6" s="12">
-        <v>2780.6</v>
-      </c>
-      <c r="E6" s="11">
-        <v>2787.9</v>
-      </c>
-      <c r="F6" s="11">
-        <v>2787.9</v>
-      </c>
-      <c r="G6" s="11">
-        <v>2758.2</v>
-      </c>
-      <c r="H6" s="13">
-        <v>3917.1</v>
-      </c>
-      <c r="I6" s="11">
-        <v>2692.76</v>
-      </c>
-      <c r="J6" s="11">
-        <v>3068.87</v>
-      </c>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="G7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="12">
+        <v>3413.1</v>
+      </c>
+      <c r="I7" s="10">
+        <v>3214.12</v>
+      </c>
+      <c r="J7" s="10">
+        <v>3227.36</v>
+      </c>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="11">
+        <v>356</v>
+      </c>
+      <c r="C8" s="11">
+        <v>201.2</v>
+      </c>
+      <c r="D8" s="11">
+        <v>715.7</v>
+      </c>
+      <c r="E8" s="10">
+        <v>355</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="12">
+        <v>355.2</v>
+      </c>
+      <c r="I8" s="10">
+        <v>356.59</v>
+      </c>
+      <c r="J8" s="10">
+        <v>353.49</v>
+      </c>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="12">
-        <v>3304.5</v>
-      </c>
-      <c r="C7" s="12">
-        <v>3409.1</v>
-      </c>
-      <c r="D7" s="12">
-        <v>2808.6</v>
-      </c>
-      <c r="E7" s="11">
-        <v>3327.1</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="13">
-        <v>3413.1</v>
-      </c>
-      <c r="I7" s="11">
-        <v>3214.12</v>
-      </c>
-      <c r="J7" s="11">
-        <v>3227.36</v>
-      </c>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="12">
-        <v>356</v>
-      </c>
-      <c r="C8" s="12">
-        <v>201.2</v>
-      </c>
-      <c r="D8" s="12">
-        <v>715.7</v>
-      </c>
-      <c r="E8" s="11">
-        <v>355</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="13">
-        <v>355.2</v>
-      </c>
-      <c r="I8" s="11">
-        <v>356.59</v>
-      </c>
-      <c r="J8" s="11">
-        <v>353.49</v>
-      </c>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>1251.4000000000001</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>1228</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>1412.7</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>1250</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>1250</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>1250</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <v>1249.3</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>1247.82</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>1245.6199999999999</v>
       </c>
-      <c r="K9" s="11"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>1091.8</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>910</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>1214.3</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>1081.5999999999999</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="13">
+      <c r="F10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="12">
         <v>1082.3</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>871.02</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <v>1046.5</v>
       </c>
-      <c r="K10" s="11"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1179,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685C9287-4B61-3F4F-A0D7-84642B1E885B}">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1196,8 +1198,8 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>61</v>
+      <c r="A3" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1210,73 +1212,73 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>0.99950000000000006</v>
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>0.998</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>0.995</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.995</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -1284,7 +1286,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1292,7 +1294,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -1300,54 +1302,54 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30">
-        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31">
-        <v>0.995</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>0.995</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -1355,15 +1357,15 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -1371,52 +1373,52 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42">
-        <v>10</v>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43">
-        <v>0.998</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <v>0.998</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
@@ -1424,15 +1426,15 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -1440,66 +1442,66 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>26</v>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>35</v>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>36</v>
-      </c>
-      <c r="B63" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
@@ -1507,15 +1509,15 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -1523,51 +1525,51 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>40</v>
-      </c>
-      <c r="B67">
+        <v>38</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>34</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>35</v>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>36</v>
-      </c>
-      <c r="B76" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
@@ -1575,15 +1577,15 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -1591,95 +1593,103 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>40</v>
-      </c>
-      <c r="B80">
+        <v>38</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/paper/benchmarking/experimental isotherms/experimental_calculated_areas_and_software_settings.xlsx
+++ b/paper/benchmarking/experimental isotherms/experimental_calculated_areas_and_software_settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gianmarcoterrones/Research/MOFs/Greg_SESAMI/SESAMI_web/paper/benchmarking/experimental isotherms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F316FC-E034-084E-814E-D8638DB6F173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A25C8FE-6B28-9C40-AF35-DBF0D23D9366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="1" xr2:uid="{E941D5A1-A0F3-0B48-A4F6-A2D24C9292E4}"/>
   </bookViews>
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685C9287-4B61-3F4F-A0D7-84642B1E885B}">
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1404,9 +1404,6 @@
       <c r="B43">
         <v>10</v>
       </c>
-      <c r="C43" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -1414,6 +1411,9 @@
       </c>
       <c r="B44">
         <v>0.998</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
